--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H2">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.526935041719488</v>
+        <v>0.8694479999999999</v>
       </c>
       <c r="N2">
-        <v>0.526935041719488</v>
+        <v>2.608344</v>
       </c>
       <c r="O2">
-        <v>0.1099069236335218</v>
+        <v>0.1600841558454311</v>
       </c>
       <c r="P2">
-        <v>0.1099069236335218</v>
+        <v>0.1600841558454311</v>
       </c>
       <c r="Q2">
-        <v>19.08601247207321</v>
+        <v>35.471545617096</v>
       </c>
       <c r="R2">
-        <v>19.08601247207321</v>
+        <v>319.243910553864</v>
       </c>
       <c r="S2">
-        <v>0.02884064658543476</v>
+        <v>0.04305033515526559</v>
       </c>
       <c r="T2">
-        <v>0.02884064658543476</v>
+        <v>0.0430503351552656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H3">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I3">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J3">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.16027235621576</v>
+        <v>3.177221666666667</v>
       </c>
       <c r="N3">
-        <v>3.16027235621576</v>
+        <v>9.531665</v>
       </c>
       <c r="O3">
-        <v>0.6591624868642511</v>
+        <v>0.5849951330524047</v>
       </c>
       <c r="P3">
-        <v>0.6591624868642511</v>
+        <v>0.5849951330524048</v>
       </c>
       <c r="Q3">
-        <v>114.4676152283524</v>
+        <v>129.623581036235</v>
       </c>
       <c r="R3">
-        <v>114.4676152283524</v>
+        <v>1166.612229326115</v>
       </c>
       <c r="S3">
-        <v>0.1729706527808759</v>
+        <v>0.1573187328196413</v>
       </c>
       <c r="T3">
-        <v>0.1729706527808759</v>
+        <v>0.1573187328196414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H4">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I4">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J4">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.10716791800501</v>
+        <v>1.384523666666666</v>
       </c>
       <c r="N4">
-        <v>1.10716791800501</v>
+        <v>4.153570999999999</v>
       </c>
       <c r="O4">
-        <v>0.2309305895022271</v>
+        <v>0.2549207111021641</v>
       </c>
       <c r="P4">
-        <v>0.2309305895022271</v>
+        <v>0.2549207111021641</v>
       </c>
       <c r="Q4">
-        <v>40.10251552595015</v>
+        <v>56.485487803889</v>
       </c>
       <c r="R4">
-        <v>40.10251552595015</v>
+        <v>508.369390235001</v>
       </c>
       <c r="S4">
-        <v>0.06059843454273949</v>
+        <v>0.06855408015246134</v>
       </c>
       <c r="T4">
-        <v>0.06059843454273949</v>
+        <v>0.06855408015246135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.1615960274159</v>
+        <v>46.219831</v>
       </c>
       <c r="H5">
-        <v>46.1615960274159</v>
+        <v>138.659493</v>
       </c>
       <c r="I5">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="J5">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.526935041719488</v>
+        <v>0.8694479999999999</v>
       </c>
       <c r="N5">
-        <v>0.526935041719488</v>
+        <v>2.608344</v>
       </c>
       <c r="O5">
-        <v>0.1099069236335218</v>
+        <v>0.1600841558454311</v>
       </c>
       <c r="P5">
-        <v>0.1099069236335218</v>
+        <v>0.1600841558454311</v>
       </c>
       <c r="Q5">
-        <v>24.32416252854455</v>
+        <v>40.18573962328799</v>
       </c>
       <c r="R5">
-        <v>24.32416252854455</v>
+        <v>361.6716566095919</v>
       </c>
       <c r="S5">
-        <v>0.03675595287380767</v>
+        <v>0.04877175575938204</v>
       </c>
       <c r="T5">
-        <v>0.03675595287380767</v>
+        <v>0.04877175575938204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.1615960274159</v>
+        <v>46.219831</v>
       </c>
       <c r="H6">
-        <v>46.1615960274159</v>
+        <v>138.659493</v>
       </c>
       <c r="I6">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="J6">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.16027235621576</v>
+        <v>3.177221666666667</v>
       </c>
       <c r="N6">
-        <v>3.16027235621576</v>
+        <v>9.531665</v>
       </c>
       <c r="O6">
-        <v>0.6591624868642511</v>
+        <v>0.5849951330524047</v>
       </c>
       <c r="P6">
-        <v>0.6591624868642511</v>
+        <v>0.5849951330524048</v>
       </c>
       <c r="Q6">
-        <v>145.8832158442417</v>
+        <v>146.8506484828717</v>
       </c>
       <c r="R6">
-        <v>145.8832158442417</v>
+        <v>1321.655836345845</v>
       </c>
       <c r="S6">
-        <v>0.2204423934578644</v>
+        <v>0.1782265059210941</v>
       </c>
       <c r="T6">
-        <v>0.2204423934578644</v>
+        <v>0.1782265059210941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.1615960274159</v>
+        <v>46.219831</v>
       </c>
       <c r="H7">
-        <v>46.1615960274159</v>
+        <v>138.659493</v>
       </c>
       <c r="I7">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="J7">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.10716791800501</v>
+        <v>1.384523666666666</v>
       </c>
       <c r="N7">
-        <v>1.10716791800501</v>
+        <v>4.153570999999999</v>
       </c>
       <c r="O7">
-        <v>0.2309305895022271</v>
+        <v>0.2549207111021641</v>
       </c>
       <c r="P7">
-        <v>0.2309305895022271</v>
+        <v>0.2549207111021641</v>
       </c>
       <c r="Q7">
-        <v>51.1086381654624</v>
+        <v>63.99244988883365</v>
       </c>
       <c r="R7">
-        <v>51.1086381654624</v>
+        <v>575.932048999503</v>
       </c>
       <c r="S7">
-        <v>0.07722965564178162</v>
+        <v>0.0776649668683472</v>
       </c>
       <c r="T7">
-        <v>0.07722965564178162</v>
+        <v>0.0776649668683472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.6490887720804</v>
+        <v>64.69033266666666</v>
       </c>
       <c r="H8">
-        <v>55.6490887720804</v>
+        <v>194.070998</v>
       </c>
       <c r="I8">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="J8">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.526935041719488</v>
+        <v>0.8694479999999999</v>
       </c>
       <c r="N8">
-        <v>0.526935041719488</v>
+        <v>2.608344</v>
       </c>
       <c r="O8">
-        <v>0.1099069236335218</v>
+        <v>0.1600841558454311</v>
       </c>
       <c r="P8">
-        <v>0.1099069236335218</v>
+        <v>0.1600841558454311</v>
       </c>
       <c r="Q8">
-        <v>29.32345491376768</v>
+        <v>56.24488035636799</v>
       </c>
       <c r="R8">
-        <v>29.32345491376768</v>
+        <v>506.203923207312</v>
       </c>
       <c r="S8">
-        <v>0.04431032417427939</v>
+        <v>0.0682620649307835</v>
       </c>
       <c r="T8">
-        <v>0.04431032417427939</v>
+        <v>0.0682620649307835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.6490887720804</v>
+        <v>64.69033266666666</v>
       </c>
       <c r="H9">
-        <v>55.6490887720804</v>
+        <v>194.070998</v>
       </c>
       <c r="I9">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="J9">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.16027235621576</v>
+        <v>3.177221666666667</v>
       </c>
       <c r="N9">
-        <v>3.16027235621576</v>
+        <v>9.531665</v>
       </c>
       <c r="O9">
-        <v>0.6591624868642511</v>
+        <v>0.5849951330524047</v>
       </c>
       <c r="P9">
-        <v>0.6591624868642511</v>
+        <v>0.5849951330524048</v>
       </c>
       <c r="Q9">
-        <v>175.8662768950025</v>
+        <v>205.5355265724078</v>
       </c>
       <c r="R9">
-        <v>175.8662768950025</v>
+        <v>1849.81973915167</v>
       </c>
       <c r="S9">
-        <v>0.2657494406255107</v>
+        <v>0.2494498943116692</v>
       </c>
       <c r="T9">
-        <v>0.2657494406255107</v>
+        <v>0.2494498943116693</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.6490887720804</v>
+        <v>64.69033266666666</v>
       </c>
       <c r="H10">
-        <v>55.6490887720804</v>
+        <v>194.070998</v>
       </c>
       <c r="I10">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="J10">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.10716791800501</v>
+        <v>1.384523666666666</v>
       </c>
       <c r="N10">
-        <v>1.10716791800501</v>
+        <v>4.153570999999999</v>
       </c>
       <c r="O10">
-        <v>0.2309305895022271</v>
+        <v>0.2549207111021641</v>
       </c>
       <c r="P10">
-        <v>0.2309305895022271</v>
+        <v>0.2549207111021641</v>
       </c>
       <c r="Q10">
-        <v>61.61288575466023</v>
+        <v>89.56529658153976</v>
       </c>
       <c r="R10">
-        <v>61.61288575466023</v>
+        <v>806.0876692338579</v>
       </c>
       <c r="S10">
-        <v>0.09310249931770592</v>
+        <v>0.1087016640813556</v>
       </c>
       <c r="T10">
-        <v>0.09310249931770592</v>
+        <v>0.1087016640813556</v>
       </c>
     </row>
   </sheetData>
